--- a/SchedulingData/dynamic16/pso/scheduling1_15.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_15.xlsx
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>54.1</v>
+        <v>40.8</v>
       </c>
       <c r="E2" t="n">
-        <v>26.76</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54.1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>111</v>
+        <v>65.48</v>
       </c>
       <c r="E3" t="n">
-        <v>23.68</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>111</v>
+        <v>40.8</v>
       </c>
       <c r="D4" t="n">
-        <v>151.7</v>
+        <v>119.46</v>
       </c>
       <c r="E4" t="n">
-        <v>21.24</v>
+        <v>22.824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>151.7</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>205</v>
+        <v>45.7</v>
       </c>
       <c r="E5" t="n">
-        <v>17.04</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>119.46</v>
       </c>
       <c r="D6" t="n">
-        <v>101.86</v>
+        <v>173.92</v>
       </c>
       <c r="E6" t="n">
-        <v>25.464</v>
+        <v>20.008</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>65.48</v>
       </c>
       <c r="D7" t="n">
-        <v>35.1</v>
+        <v>148.28</v>
       </c>
       <c r="E7" t="n">
-        <v>27.68</v>
+        <v>21.472</v>
       </c>
     </row>
     <row r="8">
@@ -580,55 +580,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>65.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>25.62</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>101.86</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>169.64</v>
+        <v>54.12</v>
       </c>
       <c r="E9" t="n">
-        <v>22.296</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>148.28</v>
       </c>
       <c r="D10" t="n">
-        <v>63.08</v>
+        <v>207.78</v>
       </c>
       <c r="E10" t="n">
-        <v>26.352</v>
+        <v>18.632</v>
       </c>
     </row>
     <row r="11">
@@ -637,17 +637,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>78.59999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="E11" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="12">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>65.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>146.9</v>
+        <v>134.52</v>
       </c>
       <c r="E12" t="n">
-        <v>22.58</v>
+        <v>23.328</v>
       </c>
     </row>
     <row r="13">
@@ -675,36 +675,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>78.59999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="D13" t="n">
-        <v>130.8</v>
+        <v>135.6</v>
       </c>
       <c r="E13" t="n">
-        <v>22.72</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>130.8</v>
+        <v>173.92</v>
       </c>
       <c r="D14" t="n">
-        <v>184.4</v>
+        <v>209.62</v>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
+        <v>17.568</v>
       </c>
     </row>
     <row r="15">
@@ -713,74 +713,74 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>205</v>
+        <v>54.12</v>
       </c>
       <c r="D15" t="n">
-        <v>268.42</v>
+        <v>108.28</v>
       </c>
       <c r="E15" t="n">
-        <v>12.828</v>
+        <v>21.992</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>268.42</v>
+        <v>45.7</v>
       </c>
       <c r="D16" t="n">
-        <v>307.88</v>
+        <v>102.9</v>
       </c>
       <c r="E16" t="n">
-        <v>10.012</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>184.4</v>
+        <v>108.28</v>
       </c>
       <c r="D17" t="n">
-        <v>252.52</v>
+        <v>151.84</v>
       </c>
       <c r="E17" t="n">
-        <v>14.788</v>
+        <v>18.776</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>63.08</v>
+        <v>207.78</v>
       </c>
       <c r="D18" t="n">
-        <v>127.98</v>
+        <v>263.32</v>
       </c>
       <c r="E18" t="n">
-        <v>22.972</v>
+        <v>16.168</v>
       </c>
     </row>
     <row r="19">
@@ -789,55 +789,55 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>252.52</v>
+        <v>135.6</v>
       </c>
       <c r="D19" t="n">
-        <v>330.12</v>
+        <v>183.3</v>
       </c>
       <c r="E19" t="n">
-        <v>10.628</v>
+        <v>18.56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>146.9</v>
+        <v>102.9</v>
       </c>
       <c r="D20" t="n">
-        <v>235.06</v>
+        <v>179.66</v>
       </c>
       <c r="E20" t="n">
-        <v>19.364</v>
+        <v>18.964</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35.1</v>
+        <v>151.84</v>
       </c>
       <c r="D21" t="n">
-        <v>90.2</v>
+        <v>211.54</v>
       </c>
       <c r="E21" t="n">
-        <v>23.3</v>
+        <v>15.896</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>127.98</v>
+        <v>209.62</v>
       </c>
       <c r="D22" t="n">
-        <v>167.78</v>
+        <v>245.94</v>
       </c>
       <c r="E22" t="n">
-        <v>20.132</v>
+        <v>14.576</v>
       </c>
     </row>
     <row r="23">
@@ -865,17 +865,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>169.64</v>
+        <v>179.66</v>
       </c>
       <c r="D23" t="n">
-        <v>231.5</v>
+        <v>221.76</v>
       </c>
       <c r="E23" t="n">
-        <v>18.24</v>
+        <v>15.884</v>
       </c>
     </row>
     <row r="24">
@@ -884,36 +884,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>231.5</v>
+        <v>221.76</v>
       </c>
       <c r="D24" t="n">
-        <v>315.46</v>
+        <v>298.96</v>
       </c>
       <c r="E24" t="n">
-        <v>14.444</v>
+        <v>12.764</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>235.06</v>
+        <v>245.94</v>
       </c>
       <c r="D25" t="n">
-        <v>295.14</v>
+        <v>295.08</v>
       </c>
       <c r="E25" t="n">
-        <v>14.996</v>
+        <v>11.792</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>330.12</v>
+        <v>183.3</v>
       </c>
       <c r="D26" t="n">
-        <v>373.36</v>
+        <v>245.06</v>
       </c>
       <c r="E26" t="n">
-        <v>7.924</v>
+        <v>14.504</v>
       </c>
     </row>
     <row r="27">
@@ -941,36 +941,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>90.2</v>
+        <v>263.32</v>
       </c>
       <c r="D27" t="n">
-        <v>154.4</v>
+        <v>331.74</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>11.956</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>307.88</v>
+        <v>295.08</v>
       </c>
       <c r="D28" t="n">
-        <v>360.56</v>
+        <v>335.42</v>
       </c>
       <c r="E28" t="n">
-        <v>6.364</v>
+        <v>8.888</v>
       </c>
     </row>
     <row r="29">
@@ -979,17 +979,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>154.4</v>
+        <v>331.74</v>
       </c>
       <c r="D29" t="n">
-        <v>248.9</v>
+        <v>416.44</v>
       </c>
       <c r="E29" t="n">
-        <v>17.12</v>
+        <v>7.576</v>
       </c>
     </row>
     <row r="30">
@@ -998,112 +998,112 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>295.14</v>
+        <v>134.52</v>
       </c>
       <c r="D30" t="n">
-        <v>367.14</v>
+        <v>187.94</v>
       </c>
       <c r="E30" t="n">
-        <v>11.396</v>
+        <v>19.116</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>367.14</v>
+        <v>335.42</v>
       </c>
       <c r="D31" t="n">
-        <v>443.26</v>
+        <v>385.22</v>
       </c>
       <c r="E31" t="n">
-        <v>7.364</v>
+        <v>5.528</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>360.56</v>
+        <v>298.96</v>
       </c>
       <c r="D32" t="n">
-        <v>412.04</v>
+        <v>355.28</v>
       </c>
       <c r="E32" t="n">
-        <v>2.836</v>
+        <v>9.772</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>373.36</v>
+        <v>211.54</v>
       </c>
       <c r="D33" t="n">
-        <v>446.7</v>
+        <v>291.22</v>
       </c>
       <c r="E33" t="n">
-        <v>3.22</v>
+        <v>11.528</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>248.9</v>
+        <v>291.22</v>
       </c>
       <c r="D34" t="n">
-        <v>300.22</v>
+        <v>352.36</v>
       </c>
       <c r="E34" t="n">
-        <v>14.128</v>
+        <v>8.044</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>167.78</v>
+        <v>355.28</v>
       </c>
       <c r="D35" t="n">
-        <v>222.82</v>
+        <v>408.54</v>
       </c>
       <c r="E35" t="n">
-        <v>17.228</v>
+        <v>6.556</v>
       </c>
     </row>
     <row r="36">
@@ -1112,17 +1112,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>300.22</v>
+        <v>416.44</v>
       </c>
       <c r="D36" t="n">
-        <v>352.62</v>
+        <v>485.8</v>
       </c>
       <c r="E36" t="n">
-        <v>11.008</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="37">
@@ -1131,231 +1131,231 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>446.7</v>
+        <v>245.06</v>
       </c>
       <c r="D37" t="n">
-        <v>536.76</v>
+        <v>296.96</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>11.424</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>536.76</v>
+        <v>352.36</v>
       </c>
       <c r="D38" t="n">
-        <v>582.5599999999999</v>
+        <v>401.56</v>
       </c>
       <c r="E38" t="n">
-        <v>26.62</v>
+        <v>4.744</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>582.5599999999999</v>
+        <v>385.22</v>
       </c>
       <c r="D39" t="n">
-        <v>639.1799999999999</v>
+        <v>439.3</v>
       </c>
       <c r="E39" t="n">
-        <v>24.068</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>222.82</v>
+        <v>408.54</v>
       </c>
       <c r="D40" t="n">
-        <v>270.22</v>
+        <v>467.64</v>
       </c>
       <c r="E40" t="n">
-        <v>14.108</v>
+        <v>3.256</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>443.26</v>
+        <v>296.96</v>
       </c>
       <c r="D41" t="n">
-        <v>507.56</v>
+        <v>350.74</v>
       </c>
       <c r="E41" t="n">
-        <v>4.064</v>
+        <v>9.135999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>412.04</v>
+        <v>485.8</v>
       </c>
       <c r="D42" t="n">
-        <v>488.17</v>
+        <v>556.46</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>488.17</v>
+        <v>556.46</v>
       </c>
       <c r="D43" t="n">
-        <v>563.65</v>
+        <v>631.87</v>
       </c>
       <c r="E43" t="n">
-        <v>25.632</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>270.22</v>
+        <v>401.56</v>
       </c>
       <c r="D44" t="n">
-        <v>338.74</v>
+        <v>464.4</v>
       </c>
       <c r="E44" t="n">
-        <v>9.896000000000001</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>338.74</v>
+        <v>631.87</v>
       </c>
       <c r="D45" t="n">
-        <v>424.94</v>
+        <v>680.35</v>
       </c>
       <c r="E45" t="n">
-        <v>5.396</v>
+        <v>26.832</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>352.62</v>
+        <v>464.4</v>
       </c>
       <c r="D46" t="n">
-        <v>398.24</v>
+        <v>556.72</v>
       </c>
       <c r="E46" t="n">
-        <v>7.576</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>315.46</v>
+        <v>556.72</v>
       </c>
       <c r="D47" t="n">
-        <v>373.2</v>
+        <v>628.62</v>
       </c>
       <c r="E47" t="n">
-        <v>10.3</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>507.56</v>
+        <v>439.3</v>
       </c>
       <c r="D48" t="n">
-        <v>548.88</v>
+        <v>478.7</v>
       </c>
       <c r="E48" t="n">
-        <v>1.072</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>548.88</v>
+        <v>478.7</v>
       </c>
       <c r="D49" t="n">
-        <v>623.74</v>
+        <v>549.8</v>
       </c>
       <c r="E49" t="n">
         <v>30</v>
@@ -1378,17 +1378,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>398.24</v>
+        <v>680.35</v>
       </c>
       <c r="D50" t="n">
-        <v>467.28</v>
+        <v>724.05</v>
       </c>
       <c r="E50" t="n">
-        <v>4.792</v>
+        <v>23.592</v>
       </c>
     </row>
     <row r="51">
@@ -1397,36 +1397,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>623.74</v>
+        <v>187.94</v>
       </c>
       <c r="D51" t="n">
-        <v>680.4</v>
+        <v>234.52</v>
       </c>
       <c r="E51" t="n">
-        <v>26.024</v>
+        <v>15.588</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>373.2</v>
+        <v>350.74</v>
       </c>
       <c r="D52" t="n">
-        <v>440.9</v>
+        <v>387.34</v>
       </c>
       <c r="E52" t="n">
-        <v>6.66</v>
+        <v>6.616</v>
       </c>
     </row>
     <row r="53">
@@ -1435,283 +1435,283 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>424.94</v>
+        <v>549.8</v>
       </c>
       <c r="D53" t="n">
-        <v>493.34</v>
+        <v>604.8</v>
       </c>
       <c r="E53" t="n">
-        <v>2.156</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>493.34</v>
+        <v>387.34</v>
       </c>
       <c r="D54" t="n">
-        <v>580.53</v>
+        <v>445.64</v>
       </c>
       <c r="E54" t="n">
-        <v>30</v>
+        <v>2.896</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>580.53</v>
+        <v>234.52</v>
       </c>
       <c r="D55" t="n">
-        <v>617.63</v>
+        <v>297.72</v>
       </c>
       <c r="E55" t="n">
-        <v>27.48</v>
+        <v>11.388</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>467.28</v>
+        <v>297.72</v>
       </c>
       <c r="D56" t="n">
-        <v>536.24</v>
+        <v>359.22</v>
       </c>
       <c r="E56" t="n">
-        <v>0.996</v>
+        <v>8.348000000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>536.24</v>
+        <v>467.64</v>
       </c>
       <c r="D57" t="n">
-        <v>611.05</v>
+        <v>519.9400000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>680.4</v>
+        <v>519.9400000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>723.86</v>
+        <v>606.37</v>
       </c>
       <c r="E58" t="n">
-        <v>22.808</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>440.9</v>
+        <v>604.8</v>
       </c>
       <c r="D59" t="n">
-        <v>505.7</v>
+        <v>687.28</v>
       </c>
       <c r="E59" t="n">
-        <v>3.3</v>
+        <v>23.052</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>617.63</v>
+        <v>359.22</v>
       </c>
       <c r="D60" t="n">
-        <v>673.17</v>
+        <v>435.34</v>
       </c>
       <c r="E60" t="n">
-        <v>25.016</v>
+        <v>4.316</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>563.65</v>
+        <v>445.64</v>
       </c>
       <c r="D61" t="n">
-        <v>608.03</v>
+        <v>526.45</v>
       </c>
       <c r="E61" t="n">
-        <v>22.824</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>673.17</v>
+        <v>526.45</v>
       </c>
       <c r="D62" t="n">
-        <v>749.01</v>
+        <v>619.29</v>
       </c>
       <c r="E62" t="n">
-        <v>21.532</v>
+        <v>25.856</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>505.7</v>
+        <v>628.62</v>
       </c>
       <c r="D63" t="n">
-        <v>605.4</v>
+        <v>685.34</v>
       </c>
       <c r="E63" t="n">
-        <v>30</v>
+        <v>22.948</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>605.4</v>
+        <v>435.34</v>
       </c>
       <c r="D64" t="n">
-        <v>660.4</v>
+        <v>497.92</v>
       </c>
       <c r="E64" t="n">
-        <v>26.7</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>611.05</v>
+        <v>497.92</v>
       </c>
       <c r="D65" t="n">
-        <v>649.25</v>
+        <v>583.1799999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>26.88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>608.03</v>
+        <v>619.29</v>
       </c>
       <c r="D66" t="n">
-        <v>662.11</v>
+        <v>694.09</v>
       </c>
       <c r="E66" t="n">
-        <v>20.536</v>
+        <v>21.476</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>662.11</v>
+        <v>583.1799999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>736.5700000000001</v>
+        <v>671.72</v>
       </c>
       <c r="E67" t="n">
-        <v>17.68</v>
+        <v>25.296</v>
       </c>
     </row>
   </sheetData>
